--- a/testfile.xlsx
+++ b/testfile.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA40FDAA-3DAD-0345-82C5-E96175EC19F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7810810D-1E64-4346-BA56-B70A506890B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="item1" sheetId="1" r:id="rId1"/>
@@ -7411,7 +7411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14952,7 +14952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5949992-1027-A140-A6E7-08E9E1EA71C5}">
   <dimension ref="A1:AH80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
